--- a/server/main.xlsx
+++ b/server/main.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -720,9 +720,1016 @@
         <v>Verification in progress...</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>4/11/2024</v>
+      </c>
+      <c r="B7" t="str">
+        <v>1:27:35 pm</v>
+      </c>
+      <c r="C7" t="str">
+        <v>041124132735</v>
+      </c>
+      <c r="D7" t="str">
+        <v>order_PH9Z25yUw1Wfps</v>
+      </c>
+      <c r="E7" t="str">
+        <v>21</v>
+      </c>
+      <c r="F7" t="str">
+        <v>21B81A05W9</v>
+      </c>
+      <c r="G7" t="str">
+        <v>CHIGIRINTHA SRITHIKA</v>
+      </c>
+      <c r="H7" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I7" t="str">
+        <v>E</v>
+      </c>
+      <c r="J7" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K7" t="str">
+        <v>prabhakarreddy789@gmail.com</v>
+      </c>
+      <c r="L7" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M7" t="str">
+        <v>I</v>
+      </c>
+      <c r="N7" t="str">
+        <v/>
+      </c>
+      <c r="O7">
+        <v>100000</v>
+      </c>
+      <c r="P7" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q7" t="str">
+        <v>Verification in progress...</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>4/11/2024</v>
+      </c>
+      <c r="B8" t="str">
+        <v>1:53:02 pm</v>
+      </c>
+      <c r="C8" t="str">
+        <v>041124135302</v>
+      </c>
+      <c r="D8" t="str">
+        <v>order_PH9ztWTmm74bbD</v>
+      </c>
+      <c r="E8" t="str">
+        <v>21</v>
+      </c>
+      <c r="F8" t="str">
+        <v>21B81A05V9</v>
+      </c>
+      <c r="G8" t="str">
+        <v>SAMRATH REDDY YELAPATI</v>
+      </c>
+      <c r="H8" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I8" t="str">
+        <v>E</v>
+      </c>
+      <c r="J8" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K8" t="str">
+        <v>samrathghana@gmail.com</v>
+      </c>
+      <c r="L8" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M8" t="str">
+        <v>I</v>
+      </c>
+      <c r="N8" t="str">
+        <v/>
+      </c>
+      <c r="O8">
+        <v>120000</v>
+      </c>
+      <c r="P8" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q8" t="str">
+        <v>Verification in progress...</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>4/11/2024</v>
+      </c>
+      <c r="B9" t="str">
+        <v>1:55:52 pm</v>
+      </c>
+      <c r="C9" t="str">
+        <v>041124135552</v>
+      </c>
+      <c r="D9" t="str">
+        <v>order_PHA2wwePYn3hMi</v>
+      </c>
+      <c r="E9" t="str">
+        <v>21</v>
+      </c>
+      <c r="F9" t="str">
+        <v>21B81A05V9</v>
+      </c>
+      <c r="G9" t="str">
+        <v>SAMRATH REDDY YELAPATI</v>
+      </c>
+      <c r="H9" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I9" t="str">
+        <v>E</v>
+      </c>
+      <c r="J9" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K9" t="str">
+        <v>samrathghana@gmail.com</v>
+      </c>
+      <c r="L9" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M9" t="str">
+        <v>I</v>
+      </c>
+      <c r="N9" t="str">
+        <v/>
+      </c>
+      <c r="O9">
+        <v>120000</v>
+      </c>
+      <c r="P9" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q9" t="str">
+        <v>Verification in progress...</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>4/11/2024</v>
+      </c>
+      <c r="B10" t="str">
+        <v>1:57:40 pm</v>
+      </c>
+      <c r="C10" t="str">
+        <v>041124135740</v>
+      </c>
+      <c r="D10" t="str">
+        <v>order_PHA4fhRntP5Seb</v>
+      </c>
+      <c r="E10" t="str">
+        <v>21</v>
+      </c>
+      <c r="F10" t="str">
+        <v>21B81A05R8</v>
+      </c>
+      <c r="G10" t="str">
+        <v>KANDALA ABHIJITH REDDY</v>
+      </c>
+      <c r="H10" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I10" t="str">
+        <v>E</v>
+      </c>
+      <c r="J10" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K10" t="str">
+        <v>abhijithkandala@gmail.com</v>
+      </c>
+      <c r="L10" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M10" t="str">
+        <v>I</v>
+      </c>
+      <c r="N10" t="str">
+        <v/>
+      </c>
+      <c r="O10">
+        <v>120000</v>
+      </c>
+      <c r="P10" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q10" t="str">
+        <v>Verification in progress...</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>4/11/2024</v>
+      </c>
+      <c r="B11" t="str">
+        <v>1:58:58 pm</v>
+      </c>
+      <c r="C11" t="str">
+        <v>041124135858</v>
+      </c>
+      <c r="D11" t="str">
+        <v>order_PHA68w5l6oB6Hi</v>
+      </c>
+      <c r="E11" t="str">
+        <v>21</v>
+      </c>
+      <c r="F11" t="str">
+        <v>21B81A05R8</v>
+      </c>
+      <c r="G11" t="str">
+        <v>KANDALA ABHIJITH REDDY</v>
+      </c>
+      <c r="H11" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I11" t="str">
+        <v>E</v>
+      </c>
+      <c r="J11" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K11" t="str">
+        <v>abhijithkandala@gmail.com</v>
+      </c>
+      <c r="L11" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M11" t="str">
+        <v>I</v>
+      </c>
+      <c r="N11" t="str">
+        <v/>
+      </c>
+      <c r="O11">
+        <v>120000</v>
+      </c>
+      <c r="P11" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q11" t="str">
+        <v>Verification in progress...</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>4/11/2024</v>
+      </c>
+      <c r="B12" t="str">
+        <v>2:03:54 pm</v>
+      </c>
+      <c r="C12" t="str">
+        <v>041124140354</v>
+      </c>
+      <c r="D12" t="str">
+        <v>order_PHABSjn4YKvByg</v>
+      </c>
+      <c r="E12" t="str">
+        <v>21</v>
+      </c>
+      <c r="F12" t="str">
+        <v>21B81A05V9</v>
+      </c>
+      <c r="G12" t="str">
+        <v>SAMRATH REDDY YELAPATI</v>
+      </c>
+      <c r="H12" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I12" t="str">
+        <v>E</v>
+      </c>
+      <c r="J12" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K12" t="str">
+        <v>samrathghana@gmail.com</v>
+      </c>
+      <c r="L12" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M12" t="str">
+        <v>I</v>
+      </c>
+      <c r="N12" t="str">
+        <v/>
+      </c>
+      <c r="O12">
+        <v>120000</v>
+      </c>
+      <c r="P12" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q12" t="str">
+        <v>Verification in progress...</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>4/11/2024</v>
+      </c>
+      <c r="B13" t="str">
+        <v>2:13:47 pm</v>
+      </c>
+      <c r="C13" t="str">
+        <v>041124141347</v>
+      </c>
+      <c r="D13" t="str">
+        <v>order_PHALfeTj40nWHd</v>
+      </c>
+      <c r="E13" t="str">
+        <v>21</v>
+      </c>
+      <c r="F13" t="str">
+        <v>21B81A05V9</v>
+      </c>
+      <c r="G13" t="str">
+        <v>SAMRATH REDDY YELAPATI</v>
+      </c>
+      <c r="H13" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I13" t="str">
+        <v>E</v>
+      </c>
+      <c r="J13" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K13" t="str">
+        <v>samrathghana@gmail.com</v>
+      </c>
+      <c r="L13" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M13" t="str">
+        <v>I</v>
+      </c>
+      <c r="N13" t="str">
+        <v/>
+      </c>
+      <c r="O13">
+        <v>120000</v>
+      </c>
+      <c r="P13" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q13" t="str">
+        <v>Verification in progress...</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>4/11/2024</v>
+      </c>
+      <c r="B14" t="str">
+        <v>2:20:58 pm</v>
+      </c>
+      <c r="C14" t="str">
+        <v>041124142058</v>
+      </c>
+      <c r="D14" t="str">
+        <v>order_PHATWiBbI4GH5X</v>
+      </c>
+      <c r="E14" t="str">
+        <v>21</v>
+      </c>
+      <c r="F14" t="str">
+        <v>21B81A05V9</v>
+      </c>
+      <c r="G14" t="str">
+        <v>SAMRATH REDDY YELAPATI</v>
+      </c>
+      <c r="H14" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I14" t="str">
+        <v>E</v>
+      </c>
+      <c r="J14" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K14" t="str">
+        <v>samrathghana@gmail.com</v>
+      </c>
+      <c r="L14" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M14" t="str">
+        <v>I</v>
+      </c>
+      <c r="N14" t="str">
+        <v/>
+      </c>
+      <c r="O14">
+        <v>120000</v>
+      </c>
+      <c r="P14" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q14" t="str">
+        <v>Verification in progress...</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>4/11/2024</v>
+      </c>
+      <c r="B15" t="str">
+        <v>2:22:34 pm</v>
+      </c>
+      <c r="C15" t="str">
+        <v>041124142234</v>
+      </c>
+      <c r="D15" t="str">
+        <v>order_PHAVCDvg0ICsKu</v>
+      </c>
+      <c r="E15" t="str">
+        <v>21</v>
+      </c>
+      <c r="F15" t="str">
+        <v>21B81A05V9</v>
+      </c>
+      <c r="G15" t="str">
+        <v>SAMRATH REDDY YELAPATI</v>
+      </c>
+      <c r="H15" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I15" t="str">
+        <v>E</v>
+      </c>
+      <c r="J15" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K15" t="str">
+        <v>samrathghana@gmail.com</v>
+      </c>
+      <c r="L15" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M15" t="str">
+        <v>I</v>
+      </c>
+      <c r="N15" t="str">
+        <v/>
+      </c>
+      <c r="O15">
+        <v>120000</v>
+      </c>
+      <c r="P15" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q15" t="str">
+        <v>Verification in progress...</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>4/11/2024</v>
+      </c>
+      <c r="B16" t="str">
+        <v>2:25:12 pm</v>
+      </c>
+      <c r="C16" t="str">
+        <v>041124142512</v>
+      </c>
+      <c r="D16" t="str">
+        <v>order_PHAXyqt9DFGoHc</v>
+      </c>
+      <c r="E16" t="str">
+        <v>21</v>
+      </c>
+      <c r="F16" t="str">
+        <v>21B81A05V9</v>
+      </c>
+      <c r="G16" t="str">
+        <v>SAMRATH REDDY YELAPATI</v>
+      </c>
+      <c r="H16" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I16" t="str">
+        <v>E</v>
+      </c>
+      <c r="J16" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K16" t="str">
+        <v>samrathghana@gmail.com</v>
+      </c>
+      <c r="L16" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M16" t="str">
+        <v>I</v>
+      </c>
+      <c r="N16" t="str">
+        <v/>
+      </c>
+      <c r="O16">
+        <v>120000</v>
+      </c>
+      <c r="P16" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q16" t="str">
+        <v>Verification in progress...</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>4/11/2024</v>
+      </c>
+      <c r="B17" t="str">
+        <v>2:27:21 pm</v>
+      </c>
+      <c r="C17" t="str">
+        <v>041124142721</v>
+      </c>
+      <c r="D17" t="str">
+        <v>order_PHAaFSn8X5EYAA</v>
+      </c>
+      <c r="E17" t="str">
+        <v>21</v>
+      </c>
+      <c r="F17" t="str">
+        <v>21B81A05V9</v>
+      </c>
+      <c r="G17" t="str">
+        <v>SAMRATH REDDY YELAPATI</v>
+      </c>
+      <c r="H17" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I17" t="str">
+        <v>E</v>
+      </c>
+      <c r="J17" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K17" t="str">
+        <v>samrathghana@gmail.com</v>
+      </c>
+      <c r="L17" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M17" t="str">
+        <v>I</v>
+      </c>
+      <c r="N17" t="str">
+        <v/>
+      </c>
+      <c r="O17">
+        <v>120000</v>
+      </c>
+      <c r="P17" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q17" t="str">
+        <v>Verification in progress...</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>4/11/2024</v>
+      </c>
+      <c r="B18" t="str">
+        <v>2:29:06 pm</v>
+      </c>
+      <c r="C18" t="str">
+        <v>041124142906</v>
+      </c>
+      <c r="D18" t="str">
+        <v>order_PHAc1BQQImRXtt</v>
+      </c>
+      <c r="E18" t="str">
+        <v>21</v>
+      </c>
+      <c r="F18" t="str">
+        <v>21B81A05V9</v>
+      </c>
+      <c r="G18" t="str">
+        <v>SAMRATH REDDY YELAPATI</v>
+      </c>
+      <c r="H18" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I18" t="str">
+        <v>E</v>
+      </c>
+      <c r="J18" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K18" t="str">
+        <v>samrathghana@gmail.com</v>
+      </c>
+      <c r="L18" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M18" t="str">
+        <v>I</v>
+      </c>
+      <c r="N18" t="str">
+        <v/>
+      </c>
+      <c r="O18">
+        <v>120000</v>
+      </c>
+      <c r="P18" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q18" t="str">
+        <v>Verification in progress...</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>4/11/2024</v>
+      </c>
+      <c r="B19" t="str">
+        <v>2:31:27 pm</v>
+      </c>
+      <c r="C19" t="str">
+        <v>041124143126</v>
+      </c>
+      <c r="D19" t="str">
+        <v>order_PHAeaE2YJwCAUl</v>
+      </c>
+      <c r="E19" t="str">
+        <v>21</v>
+      </c>
+      <c r="F19" t="str">
+        <v>21B81A05V9</v>
+      </c>
+      <c r="G19" t="str">
+        <v>SAMRATH REDDY YELAPATI</v>
+      </c>
+      <c r="H19" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I19" t="str">
+        <v>E</v>
+      </c>
+      <c r="J19" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K19" t="str">
+        <v>samrathghana@gmail.com</v>
+      </c>
+      <c r="L19" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M19" t="str">
+        <v>I</v>
+      </c>
+      <c r="N19" t="str">
+        <v/>
+      </c>
+      <c r="O19">
+        <v>120000</v>
+      </c>
+      <c r="P19" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q19" t="str">
+        <v>Verification in progress...</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>4/11/2024</v>
+      </c>
+      <c r="B20" t="str">
+        <v>2:35:50 pm</v>
+      </c>
+      <c r="C20" t="str">
+        <v>041124143550</v>
+      </c>
+      <c r="D20" t="str">
+        <v>order_PHAjDVMhgMERIH</v>
+      </c>
+      <c r="E20" t="str">
+        <v>21</v>
+      </c>
+      <c r="F20" t="str">
+        <v>21B81A05V9</v>
+      </c>
+      <c r="G20" t="str">
+        <v>SAMRATH REDDY YELAPATI</v>
+      </c>
+      <c r="H20" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I20" t="str">
+        <v>E</v>
+      </c>
+      <c r="J20" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K20" t="str">
+        <v>samrathghana@gmail.com</v>
+      </c>
+      <c r="L20" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M20" t="str">
+        <v>I</v>
+      </c>
+      <c r="N20" t="str">
+        <v/>
+      </c>
+      <c r="O20">
+        <v>120000</v>
+      </c>
+      <c r="P20" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q20" t="str">
+        <v>Verification in progress...</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>4/11/2024</v>
+      </c>
+      <c r="B21" t="str">
+        <v>2:37:36 pm</v>
+      </c>
+      <c r="C21" t="str">
+        <v>041124143736</v>
+      </c>
+      <c r="D21" t="str">
+        <v>order_PHAl4CT2D7YMsL</v>
+      </c>
+      <c r="E21" t="str">
+        <v>21</v>
+      </c>
+      <c r="F21" t="str">
+        <v>21B81A05V9</v>
+      </c>
+      <c r="G21" t="str">
+        <v>SAMRATH REDDY YELAPATI</v>
+      </c>
+      <c r="H21" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I21" t="str">
+        <v>E</v>
+      </c>
+      <c r="J21" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K21" t="str">
+        <v>samrathghana@gmail.com</v>
+      </c>
+      <c r="L21" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M21" t="str">
+        <v>I</v>
+      </c>
+      <c r="N21" t="str">
+        <v/>
+      </c>
+      <c r="O21">
+        <v>120000</v>
+      </c>
+      <c r="P21" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q21" t="str">
+        <v>Verification in progress...</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>4/11/2024</v>
+      </c>
+      <c r="B22" t="str">
+        <v>2:42:41 pm</v>
+      </c>
+      <c r="C22" t="str">
+        <v>041124144241</v>
+      </c>
+      <c r="D22" t="str">
+        <v>order_PHAqSSey9Xqglv</v>
+      </c>
+      <c r="E22" t="str">
+        <v>21</v>
+      </c>
+      <c r="F22" t="str">
+        <v>21B81A05V9</v>
+      </c>
+      <c r="G22" t="str">
+        <v>SAMRATH REDDY YELAPATI</v>
+      </c>
+      <c r="H22" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I22" t="str">
+        <v>E</v>
+      </c>
+      <c r="J22" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K22" t="str">
+        <v>samrathghana@gmail.com</v>
+      </c>
+      <c r="L22" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M22" t="str">
+        <v>I</v>
+      </c>
+      <c r="N22" t="str">
+        <v/>
+      </c>
+      <c r="O22">
+        <v>120000</v>
+      </c>
+      <c r="P22" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q22" t="str">
+        <v>Verification in progress...</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>4/11/2024</v>
+      </c>
+      <c r="B23" t="str">
+        <v>2:44:18 pm</v>
+      </c>
+      <c r="C23" t="str">
+        <v>041124144418</v>
+      </c>
+      <c r="D23" t="str">
+        <v>order_PHAs8F1HgOUIQP</v>
+      </c>
+      <c r="E23" t="str">
+        <v>21</v>
+      </c>
+      <c r="F23" t="str">
+        <v>21B81A05W9</v>
+      </c>
+      <c r="G23" t="str">
+        <v>CHIGIRINTHA SRITHIKA</v>
+      </c>
+      <c r="H23" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I23" t="str">
+        <v>E</v>
+      </c>
+      <c r="J23" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K23" t="str">
+        <v>prabhakarreddy789@gmail.com</v>
+      </c>
+      <c r="L23" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M23" t="str">
+        <v>I</v>
+      </c>
+      <c r="N23" t="str">
+        <v/>
+      </c>
+      <c r="O23">
+        <v>100000</v>
+      </c>
+      <c r="P23" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q23" t="str">
+        <v>Verification in progress...</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>4/11/2024</v>
+      </c>
+      <c r="B24" t="str">
+        <v>2:47:35 pm</v>
+      </c>
+      <c r="C24" t="str">
+        <v>041124144735</v>
+      </c>
+      <c r="D24" t="str">
+        <v>order_PHAvccakexPZT2</v>
+      </c>
+      <c r="E24" t="str">
+        <v>21</v>
+      </c>
+      <c r="F24" t="str">
+        <v>21B81A05V9</v>
+      </c>
+      <c r="G24" t="str">
+        <v>SAMRATH REDDY YELAPATI</v>
+      </c>
+      <c r="H24" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I24" t="str">
+        <v>E</v>
+      </c>
+      <c r="J24" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K24" t="str">
+        <v>samrathghana@gmail.com</v>
+      </c>
+      <c r="L24" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M24" t="str">
+        <v>I</v>
+      </c>
+      <c r="N24" t="str">
+        <v/>
+      </c>
+      <c r="O24">
+        <v>120000</v>
+      </c>
+      <c r="P24" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q24" t="str">
+        <v>Verification in progress...</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>4/11/2024</v>
+      </c>
+      <c r="B25" t="str">
+        <v>2:57:15 pm</v>
+      </c>
+      <c r="C25" t="str">
+        <v>041124145715</v>
+      </c>
+      <c r="D25" t="str">
+        <v>order_PHB5pjPLUN8jhE</v>
+      </c>
+      <c r="E25" t="str">
+        <v>21</v>
+      </c>
+      <c r="F25" t="str">
+        <v>21B81A05V8</v>
+      </c>
+      <c r="G25" t="str">
+        <v>POLE SAIRAM</v>
+      </c>
+      <c r="H25" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I25" t="str">
+        <v>E</v>
+      </c>
+      <c r="J25" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K25" t="str">
+        <v>sairampole@gmail.com</v>
+      </c>
+      <c r="L25" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M25" t="str">
+        <v>I</v>
+      </c>
+      <c r="N25" t="str">
+        <v/>
+      </c>
+      <c r="O25">
+        <v>120000</v>
+      </c>
+      <c r="P25" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q25" t="str">
+        <v>Verification in progress...</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Q6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Q25"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/main.xlsx
+++ b/server/main.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1727,9 +1727,274 @@
         <v>Verification in progress...</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>1/1/2025</v>
+      </c>
+      <c r="B26" t="str">
+        <v>1:11:58 pm</v>
+      </c>
+      <c r="C26" t="str">
+        <v>010125131158</v>
+      </c>
+      <c r="D26" t="str">
+        <v>order_Pe6HZcMA3jtKOF</v>
+      </c>
+      <c r="E26" t="str">
+        <v>21</v>
+      </c>
+      <c r="F26" t="str">
+        <v>21B81A05V9</v>
+      </c>
+      <c r="G26" t="str">
+        <v>SAMRATH REDDY</v>
+      </c>
+      <c r="H26" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I26" t="str">
+        <v>E</v>
+      </c>
+      <c r="J26" t="str">
+        <v>+917999999990</v>
+      </c>
+      <c r="K26" t="str">
+        <v>fomowog893@nozamas.com</v>
+      </c>
+      <c r="L26" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M26" t="str">
+        <v>I</v>
+      </c>
+      <c r="N26" t="str">
+        <v/>
+      </c>
+      <c r="O26">
+        <v>120000</v>
+      </c>
+      <c r="P26" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q26" t="str">
+        <v>Verification in progress...</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>1/1/2025</v>
+      </c>
+      <c r="B27" t="str">
+        <v>1:15:15 pm</v>
+      </c>
+      <c r="C27" t="str">
+        <v>010125131515</v>
+      </c>
+      <c r="D27" t="str">
+        <v>order_Pe6KAtrGxllVGc</v>
+      </c>
+      <c r="E27" t="str">
+        <v>21</v>
+      </c>
+      <c r="F27" t="str">
+        <v>21B81A05V9</v>
+      </c>
+      <c r="G27" t="str">
+        <v>SAMRATH REDDY</v>
+      </c>
+      <c r="H27" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I27" t="str">
+        <v>E</v>
+      </c>
+      <c r="J27" t="str">
+        <v>+917999999990</v>
+      </c>
+      <c r="K27" t="str">
+        <v>fomowog893@nozamas.com</v>
+      </c>
+      <c r="L27" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M27" t="str">
+        <v>I</v>
+      </c>
+      <c r="N27" t="str">
+        <v/>
+      </c>
+      <c r="O27">
+        <v>120000</v>
+      </c>
+      <c r="P27" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q27" t="str">
+        <v>Verification in progress...</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>1/1/2025</v>
+      </c>
+      <c r="B28" t="str">
+        <v>3:10:43 pm</v>
+      </c>
+      <c r="C28" t="str">
+        <v>010125151043</v>
+      </c>
+      <c r="D28" t="str">
+        <v>order_Pe8IxBmB7VvSbS</v>
+      </c>
+      <c r="E28" t="str">
+        <v>21</v>
+      </c>
+      <c r="F28" t="str">
+        <v>21B81A05V9</v>
+      </c>
+      <c r="G28" t="str">
+        <v>SAMRATH REDDY</v>
+      </c>
+      <c r="H28" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I28" t="str">
+        <v>E</v>
+      </c>
+      <c r="J28" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K28" t="str">
+        <v>samrathreddy04@gmail.com</v>
+      </c>
+      <c r="L28" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M28" t="str">
+        <v>IV</v>
+      </c>
+      <c r="N28" t="str">
+        <v/>
+      </c>
+      <c r="O28">
+        <v>120000</v>
+      </c>
+      <c r="P28" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q28" t="str">
+        <v>Verification in progress...</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>1/1/2025</v>
+      </c>
+      <c r="B29" t="str">
+        <v>3:30:19 pm</v>
+      </c>
+      <c r="C29" t="str">
+        <v>010125153019</v>
+      </c>
+      <c r="D29" t="str">
+        <v>order_Pe8dccfdSEBR2X</v>
+      </c>
+      <c r="E29" t="str">
+        <v>21</v>
+      </c>
+      <c r="F29" t="str">
+        <v>21B81A05V9</v>
+      </c>
+      <c r="G29" t="str">
+        <v>SAMRATH REDDY</v>
+      </c>
+      <c r="H29" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I29" t="str">
+        <v>E</v>
+      </c>
+      <c r="J29" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K29" t="str">
+        <v>samrathreddy04@gmail.com</v>
+      </c>
+      <c r="L29" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M29" t="str">
+        <v>IV</v>
+      </c>
+      <c r="N29" t="str">
+        <v/>
+      </c>
+      <c r="O29">
+        <v>120000</v>
+      </c>
+      <c r="P29" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q29" t="str">
+        <v>Rejected</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>1/1/2025</v>
+      </c>
+      <c r="B30" t="str">
+        <v>3:35:52 pm</v>
+      </c>
+      <c r="C30" t="str">
+        <v>010125153552</v>
+      </c>
+      <c r="D30" t="str">
+        <v>order_Pe8jN3nSLdJf6t</v>
+      </c>
+      <c r="E30" t="str">
+        <v>21</v>
+      </c>
+      <c r="F30" t="str">
+        <v>21B81A05V9</v>
+      </c>
+      <c r="G30" t="str">
+        <v>SAMRATH REDDY</v>
+      </c>
+      <c r="H30" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I30" t="str">
+        <v>E</v>
+      </c>
+      <c r="J30" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K30" t="str">
+        <v>samrathreddy04@gmail.com</v>
+      </c>
+      <c r="L30" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M30" t="str">
+        <v>I</v>
+      </c>
+      <c r="N30" t="str">
+        <v/>
+      </c>
+      <c r="O30">
+        <v>120000</v>
+      </c>
+      <c r="P30" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q30" t="str">
+        <v>Verified</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Q25"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Q30"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/main.xlsx
+++ b/server/main.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1992,9 +1992,168 @@
         <v>Verified</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>1/1/2025</v>
+      </c>
+      <c r="B31" t="str">
+        <v>4:57:58 pm</v>
+      </c>
+      <c r="C31" t="str">
+        <v>010125165758</v>
+      </c>
+      <c r="D31" t="str">
+        <v>order_PeA8Jf1J1MAb0G</v>
+      </c>
+      <c r="E31" t="str">
+        <v>21</v>
+      </c>
+      <c r="F31" t="str">
+        <v>21B81A05V9</v>
+      </c>
+      <c r="G31" t="str">
+        <v>SAMRATH REDDY</v>
+      </c>
+      <c r="H31" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I31" t="str">
+        <v>E</v>
+      </c>
+      <c r="J31" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K31" t="str">
+        <v>samrathreddy04@gmail.com</v>
+      </c>
+      <c r="L31" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M31" t="str">
+        <v>IV</v>
+      </c>
+      <c r="N31" t="str">
+        <v/>
+      </c>
+      <c r="O31">
+        <v>120000</v>
+      </c>
+      <c r="P31" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q31" t="str">
+        <v>Verification in progress...</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>1/1/2025</v>
+      </c>
+      <c r="B32" t="str">
+        <v>5:27:06 pm</v>
+      </c>
+      <c r="C32" t="str">
+        <v>010125172706</v>
+      </c>
+      <c r="D32" t="str">
+        <v>order_PeAd37PCqw6j8f</v>
+      </c>
+      <c r="E32" t="str">
+        <v>21</v>
+      </c>
+      <c r="F32" t="str">
+        <v>21B81A05V9</v>
+      </c>
+      <c r="G32" t="str">
+        <v>SAMRATH REDDY</v>
+      </c>
+      <c r="H32" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I32" t="str">
+        <v>E</v>
+      </c>
+      <c r="J32" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K32" t="str">
+        <v>samrathreddy04@gmail.com</v>
+      </c>
+      <c r="L32" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M32" t="str">
+        <v>IV</v>
+      </c>
+      <c r="N32" t="str">
+        <v/>
+      </c>
+      <c r="O32">
+        <v>120000</v>
+      </c>
+      <c r="P32" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q32" t="str">
+        <v>Verification in progress...</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>1/1/2025</v>
+      </c>
+      <c r="B33" t="str">
+        <v>5:29:27 pm</v>
+      </c>
+      <c r="C33" t="str">
+        <v>010125172927</v>
+      </c>
+      <c r="D33" t="str">
+        <v>order_PeAfX0B2PHevt5</v>
+      </c>
+      <c r="E33" t="str">
+        <v>21</v>
+      </c>
+      <c r="F33" t="str">
+        <v>21B81A05V9</v>
+      </c>
+      <c r="G33" t="str">
+        <v>SAMRATH REDDY</v>
+      </c>
+      <c r="H33" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I33" t="str">
+        <v>E</v>
+      </c>
+      <c r="J33" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K33" t="str">
+        <v>samrathreddy04@gmail.com</v>
+      </c>
+      <c r="L33" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M33" t="str">
+        <v>I</v>
+      </c>
+      <c r="N33" t="str">
+        <v/>
+      </c>
+      <c r="O33">
+        <v>120000</v>
+      </c>
+      <c r="P33" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q33" t="str">
+        <v>Rejected</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Q30"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Q33"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/main.xlsx
+++ b/server/main.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2151,9 +2151,62 @@
         <v>Rejected</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>1/1/2025</v>
+      </c>
+      <c r="B34" t="str">
+        <v>5:38:29 pm</v>
+      </c>
+      <c r="C34" t="str">
+        <v>010125173829</v>
+      </c>
+      <c r="D34" t="str">
+        <v>order_PeAp7aj0j7sjOl</v>
+      </c>
+      <c r="E34" t="str">
+        <v>21</v>
+      </c>
+      <c r="F34" t="str">
+        <v>21B81A05V9</v>
+      </c>
+      <c r="G34" t="str">
+        <v>SAMRATH REDDY</v>
+      </c>
+      <c r="H34" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I34" t="str">
+        <v>E</v>
+      </c>
+      <c r="J34" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K34" t="str">
+        <v>samrathreddy04@gmail.com</v>
+      </c>
+      <c r="L34" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M34" t="str">
+        <v>IV</v>
+      </c>
+      <c r="N34" t="str">
+        <v/>
+      </c>
+      <c r="O34">
+        <v>120000</v>
+      </c>
+      <c r="P34" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q34" t="str">
+        <v>Verification in progress...</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Q33"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Q34"/>
   </ignoredErrors>
 </worksheet>
 </file>